--- a/pred_ohlcv/54_21/2019-10-29 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 CMT ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-679768.4273299702</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-653968.4273299702</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-735329.0500299701</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-829507.4680299702</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-810655.6805903567</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-816103.6805903567</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-804520.6410903567</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-804510.6410903567</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-810644.0225903568</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-828444.0225903568</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-828444.0225903568</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1021089.255190357</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-997839.2754903567</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1007666.433490357</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-986776.6363903568</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-828498.7691903568</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-830004.6935903569</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-839099.1988903568</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-838766.8288903568</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-815920.6384903569</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-867920.6384903569</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-865707.2099903568</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-869291.2112903568</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-855264.7400903568</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-593800.8745903568</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2778946.677000521</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2298320.825000521</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2098482.469900521</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2004544.86740052</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2089097.969900521</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2416799.492388938</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2321646.311288937</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1387199.152827647</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1508790.359127647</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1633829.692427647</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1266183.221027647</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1458646.874494314</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1383049.471094314</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1267649.570194314</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 CMT ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-679768.4273299702</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-653968.4273299702</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-735329.0500299701</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-830004.6935903569</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-839099.1988903568</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-838766.8288903568</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-815920.6384903569</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-867920.6384903569</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-865707.2099903568</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-869291.2112903568</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2313688.462608336</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2435478.086508336</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2778946.677000521</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2298320.825000521</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2637308.522600521</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2222556.905100521</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2098482.469900521</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2004544.86740052</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2089097.969900521</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2416799.492388938</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2321646.311288937</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1134444.367727647</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1266183.221027647</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1458646.874494314</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1383049.471094314</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1267649.570194314</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
